--- a/podi/data/emissions_factors.xlsx
+++ b/podi/data/emissions_factors.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PD21/positive-disruption/podi/tasks/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PD21/positive-disruption/podi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEC618-1512-A848-9975-59434704F450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515D62E-0752-404D-A2C5-957534B2A992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{B41DE064-F609-6D4B-B827-E6B625F3FA2A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B41DE064-F609-6D4B-B827-E6B625F3FA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:CO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3:CO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
